--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\813764\IdeaProjects\excel0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9380428C-CDCA-4499-8B15-EEB6E56FB3C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B0A721-2489-4FBD-AF86-119A2F3C66AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{396729E6-E6C3-47B5-ABE3-A2613F750A0A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{396729E6-E6C3-47B5-ABE3-A2613F750A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="details" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,10 +510,10 @@
         <v>99</v>
       </c>
       <c r="B8">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -566,10 +566,10 @@
         <v>105</v>
       </c>
       <c r="B12">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>3</v>
